--- a/sample_dataset.xlsx
+++ b/sample_dataset.xlsx
@@ -5,36 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{412CDAF6-A693-534C-A749-001F42F9275F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5345F9D0-5ECE-2F49-A772-46D70981E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="820" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="3300" yWindow="780" windowWidth="32700" windowHeight="17440"/>
   </bookViews>
   <sheets>
-    <sheet name="sample_datatset" sheetId="1" r:id="rId1"/>
+    <sheet name="sample_dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="29">
   <si>
     <t>patient_id</t>
-  </si>
-  <si>
-    <t>Disease</t>
   </si>
   <si>
     <t>death</t>
   </si>
   <si>
     <t>male</t>
-  </si>
-  <si>
-    <t>age at first symptom</t>
   </si>
   <si>
     <t>gene1</t>
@@ -70,28 +64,52 @@
     <t>structural_variation</t>
   </si>
   <si>
-    <t>somatic_mutation</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>New1</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>LOH</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>B</t>
+    <t>New2</t>
   </si>
   <si>
-    <t>LOH</t>
+    <t>New3</t>
   </si>
   <si>
-    <t>A</t>
+    <t>New4</t>
   </si>
   <si>
-    <t>Gain</t>
+    <t>New5</t>
   </si>
   <si>
-    <t>Loss</t>
+    <t>origin_group</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
+    <t>new_group</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>age_at_first_symptom</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1043,83 +1061,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="17" max="17" width="20.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1137,33 +1160,30 @@
         <v>0</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>41</v>
+      <c r="B3" t="s">
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1172,22 +1192,22 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -1196,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -1204,37 +1224,31 @@
       <c r="P3" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>97</v>
+      <c r="B4" t="s">
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1255,33 +1269,30 @@
         <v>0</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>96</v>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1290,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -1313,34 +1324,31 @@
       <c r="P5" t="b">
         <v>0</v>
       </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>88</v>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1352,36 +1360,30 @@
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>16</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1390,22 +1392,22 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1422,28 +1424,25 @@
       <c r="P7" t="b">
         <v>0</v>
       </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>57</v>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1452,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1475,19 +1474,16 @@
       <c r="P8" t="b">
         <v>0</v>
       </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1496,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1511,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1520,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1528,43 +1524,40 @@
       <c r="P9" t="b">
         <v>0</v>
       </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>70</v>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1573,39 +1566,36 @@
         <v>0</v>
       </c>
       <c r="N10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>42</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1623,63 +1613,60 @@
         <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
       </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>17</v>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
       <c r="M12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1687,34 +1674,31 @@
       <c r="P12" t="b">
         <v>0</v>
       </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>82</v>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1723,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1740,55 +1724,49 @@
       <c r="P13" t="b">
         <v>1</v>
       </c>
-      <c r="Q13" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>31</v>
+      <c r="B14" t="s">
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1796,28 +1774,25 @@
       <c r="P14" t="b">
         <v>0</v>
       </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>72</v>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1826,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1849,90 +1824,84 @@
       <c r="P15" t="b">
         <v>0</v>
       </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>51</v>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
       <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>49</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>40</v>
+      <c r="B17" t="s">
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1947,63 +1916,57 @@
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>18</v>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -2012,18 +1975,15 @@
         <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>79</v>
+      <c r="B19" t="s">
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -2032,19 +1992,19 @@
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -2053,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -2067,19 +2027,16 @@
       <c r="P19" t="b">
         <v>0</v>
       </c>
-      <c r="R19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>24</v>
+      <c r="B20" t="s">
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -2088,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2100,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2112,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -2120,37 +2077,31 @@
       <c r="P20" t="b">
         <v>1</v>
       </c>
-      <c r="Q20" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>11</v>
+      <c r="B21" t="s">
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2162,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -2174,54 +2125,51 @@
         <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>76</v>
+      <c r="B22" t="s">
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -2229,87 +2177,84 @@
       <c r="P22" t="b">
         <v>0</v>
       </c>
-      <c r="R22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
         <v>18</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>23</v>
+      <c r="B24" t="s">
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2321,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -2335,28 +2280,25 @@
       <c r="P24" t="b">
         <v>0</v>
       </c>
-      <c r="R24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>33</v>
+      <c r="B25" t="s">
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2365,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -2377,80 +2319,77 @@
         <v>1</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>53</v>
+      <c r="B26" t="s">
+        <v>23</v>
       </c>
       <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>38</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>24</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>61</v>
+      <c r="B27" t="s">
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -2462,22 +2401,22 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2494,31 +2433,25 @@
       <c r="P27" t="b">
         <v>0</v>
       </c>
-      <c r="Q27" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>28</v>
+      <c r="B28" t="s">
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2536,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
@@ -2550,52 +2483,46 @@
       <c r="P28" t="b">
         <v>0</v>
       </c>
-      <c r="Q28" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>14</v>
+      <c r="B29" t="s">
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -2606,19 +2533,13 @@
       <c r="P29" t="b">
         <v>0</v>
       </c>
-      <c r="Q29" t="s">
-        <v>22</v>
-      </c>
-      <c r="R29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>68</v>
+      <c r="B30" t="s">
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -2630,25 +2551,25 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
@@ -2660,30 +2581,30 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>92</v>
+      <c r="B31" t="s">
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -2701,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
@@ -2710,24 +2631,21 @@
         <v>0</v>
       </c>
       <c r="O31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="R31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>66</v>
+      <c r="B32" t="s">
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2736,16 +2654,16 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -2757,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2768,37 +2686,34 @@
       <c r="P32" t="b">
         <v>0</v>
       </c>
-      <c r="R32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>99</v>
+      <c r="B33" t="s">
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -2807,13 +2722,13 @@
         <v>1</v>
       </c>
       <c r="L33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="b">
         <v>0</v>
       </c>
       <c r="N33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
@@ -2821,28 +2736,25 @@
       <c r="P33" t="b">
         <v>0</v>
       </c>
-      <c r="R33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>29</v>
+      <c r="B34" t="s">
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -2866,27 +2778,24 @@
         <v>0</v>
       </c>
       <c r="N34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="R34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>77</v>
+      <c r="B35" t="s">
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2895,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -2913,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
@@ -2922,24 +2831,21 @@
         <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="R35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>34</v>
+      <c r="B36" t="s">
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2980,28 +2886,25 @@
       <c r="P36" t="b">
         <v>0</v>
       </c>
-      <c r="R36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>87</v>
+      <c r="B37" t="s">
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -3019,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -3033,16 +2936,16 @@
       <c r="P37" t="b">
         <v>0</v>
       </c>
-      <c r="R37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="Q37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>50</v>
+      <c r="B38" t="s">
+        <v>15</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -3051,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -3063,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -3084,30 +2987,27 @@
         <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="R38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>89</v>
+      <c r="B39" t="s">
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -3116,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
@@ -3137,30 +3037,27 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="R39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>7</v>
+      <c r="B40" t="s">
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -3169,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -3192,28 +3089,25 @@
       <c r="P40" t="b">
         <v>0</v>
       </c>
-      <c r="R40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>20</v>
+      <c r="B41" t="s">
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -3225,39 +3119,39 @@
         <v>0</v>
       </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
       <c r="L41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="b">
         <v>0</v>
       </c>
-      <c r="R41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="Q41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>21</v>
+      <c r="B42" t="s">
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -3266,13 +3160,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -3287,54 +3181,51 @@
         <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>22</v>
-      </c>
-      <c r="R42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>75</v>
+      <c r="B43" t="s">
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3343,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="b">
         <v>1</v>
@@ -3352,33 +3243,33 @@
         <v>1</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="R43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>26</v>
+      <c r="B44" t="s">
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -3390,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -3399,24 +3290,21 @@
         <v>0</v>
       </c>
       <c r="N44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
       </c>
-      <c r="R44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>44</v>
+      <c r="B45" t="s">
+        <v>25</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
@@ -3428,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -3443,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -3460,19 +3348,16 @@
       <c r="P45" t="b">
         <v>0</v>
       </c>
-      <c r="R45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>71</v>
+      <c r="B46" t="s">
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -3481,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -3496,45 +3381,42 @@
         <v>0</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
       </c>
       <c r="O46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
         <v>0</v>
       </c>
-      <c r="R46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>94</v>
+      <c r="B47" t="s">
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -3543,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
@@ -3552,42 +3434,39 @@
         <v>0</v>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
       </c>
       <c r="O47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="R47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>74</v>
+      <c r="B48" t="s">
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -3596,95 +3475,92 @@
         <v>0</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
       </c>
       <c r="O48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="R48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>32</v>
+      <c r="B49" t="s">
+        <v>15</v>
       </c>
       <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>12</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
         <v>18</v>
       </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>30</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" t="b">
-        <v>1</v>
-      </c>
-      <c r="M49" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
-      <c r="O49" t="b">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="R49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>3</v>
+      <c r="B50" t="s">
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -3693,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -3702,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -3711,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="L50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
@@ -3725,72 +3601,69 @@
       <c r="P50" t="b">
         <v>0</v>
       </c>
-      <c r="R50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>1</v>
+      <c r="B51" t="s">
+        <v>24</v>
       </c>
       <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>78</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
         <v>18</v>
       </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>32</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51" t="b">
-        <v>1</v>
-      </c>
-      <c r="N51" t="b">
-        <v>0</v>
-      </c>
-      <c r="O51" t="b">
-        <v>1</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="R51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>27</v>
+      <c r="B52" t="s">
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -3799,10 +3672,10 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -3811,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3829,77 +3702,71 @@
         <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="R52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>49</v>
+      <c r="B53" t="s">
+        <v>24</v>
       </c>
       <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="s">
         <v>18</v>
       </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>78</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="b">
-        <v>1</v>
-      </c>
-      <c r="K53" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" t="b">
-        <v>1</v>
-      </c>
-      <c r="M53" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" t="b">
-        <v>0</v>
-      </c>
-      <c r="O53" t="b">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>22</v>
-      </c>
-      <c r="R53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>63</v>
+      <c r="B54" t="s">
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -3908,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -3929,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="M54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="b">
         <v>0</v>
@@ -3940,28 +3807,25 @@
       <c r="P54" t="b">
         <v>0</v>
       </c>
-      <c r="R54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>37</v>
+      <c r="B55" t="s">
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -3970,16 +3834,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
       <c r="L55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
@@ -3991,21 +3855,18 @@
         <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="R55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>39</v>
+      <c r="B56" t="s">
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4014,13 +3875,13 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -4032,45 +3893,42 @@
         <v>0</v>
       </c>
       <c r="L56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
       </c>
       <c r="O56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>21</v>
-      </c>
-      <c r="R56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>69</v>
+      <c r="B57" t="s">
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -4079,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -4097,33 +3955,30 @@
         <v>0</v>
       </c>
       <c r="O57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
         <v>0</v>
       </c>
-      <c r="R57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>65</v>
+      <c r="B58" t="s">
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -4132,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
@@ -4141,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="b">
         <v>0</v>
@@ -4155,19 +4010,16 @@
       <c r="P58" t="b">
         <v>0</v>
       </c>
-      <c r="R58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>55</v>
+      <c r="B59" t="s">
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -4176,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -4208,19 +4060,16 @@
       <c r="P59" t="b">
         <v>0</v>
       </c>
-      <c r="R59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>35</v>
+      <c r="B60" t="s">
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -4229,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -4244,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -4259,33 +4108,27 @@
         <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>21</v>
-      </c>
-      <c r="R60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>58</v>
+      <c r="B61" t="s">
+        <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -4294,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -4315,33 +4158,30 @@
         <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="R61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>81</v>
+      <c r="B62" t="s">
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -4353,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -4365,33 +4205,30 @@
         <v>0</v>
       </c>
       <c r="O62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
         <v>0</v>
       </c>
-      <c r="R62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>2</v>
+      <c r="B63" t="s">
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -4406,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -4423,46 +4260,46 @@
       <c r="P63" t="b">
         <v>0</v>
       </c>
-      <c r="R63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="Q63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>4</v>
+      <c r="B64" t="s">
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="b">
         <v>0</v>
@@ -4474,18 +4311,15 @@
         <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="R64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>60</v>
+      <c r="B65" t="s">
+        <v>15</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -4494,13 +4328,13 @@
         <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -4512,13 +4346,13 @@
         <v>0</v>
       </c>
       <c r="K65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="b">
         <v>0</v>
       </c>
       <c r="M65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="b">
         <v>0</v>
@@ -4529,37 +4363,34 @@
       <c r="P65" t="b">
         <v>0</v>
       </c>
-      <c r="R65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>46</v>
+      <c r="B66" t="s">
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="b">
         <v>0</v>
@@ -4568,42 +4399,39 @@
         <v>0</v>
       </c>
       <c r="L66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="b">
         <v>0</v>
       </c>
       <c r="O66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="R66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>6</v>
+      <c r="B67" t="s">
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -4615,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="J67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
       <c r="L67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="b">
         <v>0</v>
@@ -4635,37 +4463,34 @@
       <c r="P67" t="b">
         <v>0</v>
       </c>
-      <c r="R67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>90</v>
+      <c r="B68" t="s">
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="b">
         <v>0</v>
@@ -4688,43 +4513,37 @@
       <c r="P68" t="b">
         <v>0</v>
       </c>
-      <c r="Q68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>47</v>
+      <c r="B69" t="s">
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
       </c>
       <c r="J69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4733,54 +4552,48 @@
         <v>0</v>
       </c>
       <c r="M69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="b">
         <v>0</v>
       </c>
-      <c r="Q69" t="s">
-        <v>22</v>
-      </c>
-      <c r="R69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>5</v>
+      <c r="B70" t="s">
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
       </c>
       <c r="J70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4798,30 +4611,27 @@
         <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="R70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>38</v>
+      <c r="B71" t="s">
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -4830,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="I71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
@@ -4848,24 +4658,21 @@
         <v>0</v>
       </c>
       <c r="O71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="b">
         <v>0</v>
       </c>
-      <c r="R71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>10</v>
+      <c r="B72" t="s">
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -4874,22 +4681,22 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
       </c>
       <c r="J72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
@@ -4904,30 +4711,27 @@
         <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="R72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>86</v>
+      <c r="B73" t="s">
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -4936,13 +4740,13 @@
         <v>0</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="b">
         <v>1</v>
@@ -4951,27 +4755,24 @@
         <v>0</v>
       </c>
       <c r="N73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="R73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>98</v>
+      <c r="B74" t="s">
+        <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -4980,13 +4781,13 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -5010,42 +4811,39 @@
         <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="R74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>67</v>
+      <c r="B75" t="s">
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -5054,30 +4852,27 @@
         <v>0</v>
       </c>
       <c r="M75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="b">
         <v>0</v>
       </c>
       <c r="O75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="R75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>54</v>
+      <c r="B76" t="s">
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -5086,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -5101,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="K76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="b">
         <v>0</v>
@@ -5113,42 +4908,36 @@
         <v>0</v>
       </c>
       <c r="O76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="b">
         <v>0</v>
       </c>
-      <c r="Q76" t="s">
-        <v>19</v>
-      </c>
-      <c r="R76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>15</v>
+      <c r="B77" t="s">
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
@@ -5163,33 +4952,30 @@
         <v>0</v>
       </c>
       <c r="M77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="b">
         <v>0</v>
       </c>
-      <c r="R77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>62</v>
+      <c r="B78" t="s">
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -5201,13 +4987,13 @@
         <v>0</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>1</v>
@@ -5219,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="b">
         <v>0</v>
@@ -5227,16 +5013,13 @@
       <c r="P78" t="b">
         <v>0</v>
       </c>
-      <c r="R78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>73</v>
+      <c r="B79" t="s">
+        <v>25</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -5248,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
@@ -5278,45 +5061,42 @@
         <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
-      </c>
-      <c r="R79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>95</v>
+      <c r="B80" t="s">
+        <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="b">
         <v>0</v>
@@ -5325,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" t="b">
         <v>0</v>
@@ -5333,55 +5113,49 @@
       <c r="P80" t="b">
         <v>0</v>
       </c>
-      <c r="Q80" t="s">
-        <v>21</v>
-      </c>
-      <c r="R80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81">
-        <v>12</v>
+      <c r="B81" t="s">
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="b">
         <v>0</v>
@@ -5389,37 +5163,34 @@
       <c r="P81" t="b">
         <v>0</v>
       </c>
-      <c r="R81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>59</v>
+      <c r="B82" t="s">
+        <v>15</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="b">
         <v>0</v>
@@ -5428,13 +5199,13 @@
         <v>0</v>
       </c>
       <c r="L82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="b">
         <v>0</v>
@@ -5442,34 +5213,31 @@
       <c r="P82" t="b">
         <v>0</v>
       </c>
-      <c r="R82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83">
-        <v>22</v>
+      <c r="B83" t="s">
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
@@ -5490,95 +5258,92 @@
         <v>0</v>
       </c>
       <c r="O83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="b">
         <v>0</v>
       </c>
-      <c r="R83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84">
-        <v>93</v>
+      <c r="B84" t="s">
+        <v>15</v>
       </c>
       <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>28</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="b">
+        <v>0</v>
+      </c>
+      <c r="O84" t="b">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="s">
         <v>18</v>
       </c>
-      <c r="D84" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>64</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" t="b">
-        <v>0</v>
-      </c>
-      <c r="M84" t="b">
-        <v>1</v>
-      </c>
-      <c r="N84" t="b">
-        <v>0</v>
-      </c>
-      <c r="O84" t="b">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="R84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>19</v>
+      <c r="B85" t="s">
+        <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="b">
         <v>0</v>
@@ -5587,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="b">
         <v>0</v>
@@ -5601,46 +5366,43 @@
       <c r="P85" t="b">
         <v>0</v>
       </c>
-      <c r="R85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86">
-        <v>91</v>
+      <c r="B86" t="s">
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" t="b">
         <v>0</v>
@@ -5649,33 +5411,30 @@
         <v>0</v>
       </c>
       <c r="O86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="R86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87">
-        <v>9</v>
+      <c r="B87" t="s">
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
@@ -5684,19 +5443,19 @@
         <v>0</v>
       </c>
       <c r="I87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" t="b">
         <v>0</v>
@@ -5707,28 +5466,25 @@
       <c r="P87" t="b">
         <v>0</v>
       </c>
-      <c r="R87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>30</v>
+      <c r="B88" t="s">
+        <v>22</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
@@ -5737,42 +5493,39 @@
         <v>0</v>
       </c>
       <c r="I88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="b">
         <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="R88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>84</v>
+      <c r="B89" t="s">
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -5781,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
@@ -5790,42 +5543,39 @@
         <v>0</v>
       </c>
       <c r="I89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" t="b">
         <v>0</v>
       </c>
       <c r="O89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="R89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>43</v>
+      <c r="B90" t="s">
+        <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -5834,13 +5584,13 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -5855,10 +5605,10 @@
         <v>0</v>
       </c>
       <c r="M90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="b">
         <v>0</v>
@@ -5866,28 +5616,28 @@
       <c r="P90" t="b">
         <v>0</v>
       </c>
-      <c r="R90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="Q90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>56</v>
+      <c r="B91" t="s">
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
@@ -5902,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="K91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="b">
         <v>0</v>
@@ -5919,46 +5669,43 @@
       <c r="P91" t="b">
         <v>0</v>
       </c>
-      <c r="R91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92">
-        <v>85</v>
+      <c r="B92" t="s">
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="b">
         <v>0</v>
@@ -5972,16 +5719,16 @@
       <c r="P92" t="b">
         <v>0</v>
       </c>
-      <c r="R92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="Q92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93">
-        <v>64</v>
+      <c r="B93" t="s">
+        <v>22</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -5993,13 +5740,13 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -6011,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="b">
         <v>0</v>
@@ -6020,36 +5767,33 @@
         <v>0</v>
       </c>
       <c r="O93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
         <v>0</v>
       </c>
-      <c r="R93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94">
-        <v>52</v>
+      <c r="B94" t="s">
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6070,48 +5814,45 @@
         <v>0</v>
       </c>
       <c r="N94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94" t="b">
         <v>0</v>
       </c>
-      <c r="R94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95">
-        <v>25</v>
+      <c r="B95" t="s">
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -6120,39 +5861,36 @@
         <v>0</v>
       </c>
       <c r="M95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="b">
         <v>0</v>
       </c>
       <c r="O95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
-      </c>
-      <c r="R95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96">
-        <v>0</v>
+      <c r="B96" t="s">
+        <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
@@ -6161,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="b">
         <v>0</v>
@@ -6173,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="b">
         <v>0</v>
@@ -6182,45 +5920,42 @@
         <v>1</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
-      </c>
-      <c r="R96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97">
-        <v>80</v>
+      <c r="B97" t="s">
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -6229,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="b">
         <v>0</v>
@@ -6237,28 +5972,28 @@
       <c r="P97" t="b">
         <v>0</v>
       </c>
-      <c r="R97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="Q97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98">
-        <v>36</v>
+      <c r="B98" t="s">
+        <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
@@ -6267,13 +6002,13 @@
         <v>0</v>
       </c>
       <c r="I98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -6290,49 +6025,46 @@
       <c r="P98" t="b">
         <v>0</v>
       </c>
-      <c r="R98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99">
         <v>13</v>
       </c>
-      <c r="C99" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" t="b">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>59</v>
-      </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
       </c>
       <c r="M99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="b">
         <v>0</v>
@@ -6343,37 +6075,34 @@
       <c r="P99" t="b">
         <v>0</v>
       </c>
-      <c r="R99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100">
-        <v>83</v>
+      <c r="B100" t="s">
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
       </c>
       <c r="I100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="b">
         <v>0</v>
@@ -6382,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="b">
         <v>0</v>
@@ -6394,21 +6123,18 @@
         <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>0</v>
-      </c>
-      <c r="R100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101">
-        <v>78</v>
+      <c r="B101" t="s">
+        <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -6417,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -6426,13 +6152,13 @@
         <v>0</v>
       </c>
       <c r="I101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -6441,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="b">
         <v>0</v>
@@ -6449,11 +6175,11 @@
       <c r="P101" t="b">
         <v>0</v>
       </c>
-      <c r="R101" t="b">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q101">
+    <sortCondition ref="A2:A101"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
